--- a/issue_list.xlsx
+++ b/issue_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish\Documents\workspace-spring-tool-suite-4-4.17.2.RELEASE\AutomationPortal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE52AFA8-B2D2-4B55-99ED-F6E44B6BFB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D0947-E223-4344-95DA-F24BD00E44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{140B35E9-1596-45A3-B2FE-A6E8C4DF2039}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Need to resolve 500 issues</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Configuration needs to check the behaviour if in an step modifying existing element where name is same</t>
+  </si>
+  <si>
+    <t>Test Steps needs to rewrite and it has many defects as found multiple test cases in db and steps are updating on editing each time</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC57436-D125-44C9-BF91-AAD775E55C26}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,6 +423,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/issue_list.xlsx
+++ b/issue_list.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manish\Documents\workspace-spring-tool-suite-4-4.17.2.RELEASE\AutomationPortal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\3\AutomationPortal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9D0947-E223-4344-95DA-F24BD00E44BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862F011-5BF8-4C49-BB28-A6606D6FBCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{140B35E9-1596-45A3-B2FE-A6E8C4DF2039}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{140B35E9-1596-45A3-B2FE-A6E8C4DF2039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Future Road Map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Need to resolve 500 issues</t>
   </si>
@@ -37,16 +38,50 @@
   </si>
   <si>
     <t>Test Steps needs to rewrite and it has many defects as found multiple test cases in db and steps are updating on editing each time</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Object Spy utility</t>
+  </si>
+  <si>
+    <t>Automation framework development</t>
+  </si>
+  <si>
+    <t>Screenshot Attachment</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Function Calling</t>
+  </si>
+  <si>
+    <t>Function Implementation</t>
+  </si>
+  <si>
+    <t>Calling 1 tc in another tc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC57436-D125-44C9-BF91-AAD775E55C26}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,7 +435,7 @@
     <col min="2" max="2" width="70.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -407,31 +443,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1130C8-4123-4C8F-8AF6-726129233EA6}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/issue_list.xlsx
+++ b/issue_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\temp\3\AutomationPortal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862F011-5BF8-4C49-BB28-A6606D6FBCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAC69FB-5993-4ADE-B7A4-C09DF7956E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{140B35E9-1596-45A3-B2FE-A6E8C4DF2039}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Need to resolve 500 issues</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Calling 1 tc in another tc</t>
+  </si>
+  <si>
+    <t>In get modules test cases array displaying twice</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1130C8-4123-4C8F-8AF6-726129233EA6}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,6 +535,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
